--- a/code/outputs/transformation_accuracy_grammar_descriptive_stats.xlsx
+++ b/code/outputs/transformation_accuracy_grammar_descriptive_stats.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dissertacao-santos-anderson-2024\code\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2713FC-C3F5-4B30-BFA9-0121D6118FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>transformation_accuracy</t>
   </si>
@@ -28,45 +22,59 @@
     <t>grammar_syntax_accuracy</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
     <t>75%</t>
   </si>
   <si>
-    <t>Cont.</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Elementos</t>
-  </si>
-  <si>
-    <t>Tipo de fatos</t>
-  </si>
-  <si>
-    <t>Nomes</t>
-  </si>
-  <si>
-    <t>Regras operativas</t>
-  </si>
-  <si>
-    <t>Termos</t>
+    <t>max</t>
+  </si>
+  <si>
+    <t>element_type</t>
+  </si>
+  <si>
+    <t>Fact_Types</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Operative_Rules</t>
+  </si>
+  <si>
+    <t>Terms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,137 +99,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -293,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,10 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,228 +415,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>160</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.86687499999999995</v>
-      </c>
-      <c r="D3" s="8">
-        <v>8.8999947000196228E-2</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="C4">
+        <v>0.866875</v>
+      </c>
+      <c r="D4">
+        <v>0.08899994700019623</v>
+      </c>
+      <c r="E4">
         <v>0.5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4">
+        <v>0.85</v>
+      </c>
+      <c r="G4">
         <v>0.9</v>
       </c>
-      <c r="G3" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="I3" s="8">
-        <v>8.8621518746327399E-2</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="H4">
+        <v>0.9</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+      <c r="J4">
+        <v>160</v>
+      </c>
+      <c r="K4">
+        <v>0.93125</v>
+      </c>
+      <c r="L4">
+        <v>0.0886215187463274</v>
+      </c>
+      <c r="M4">
         <v>0.5</v>
       </c>
-      <c r="K3" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="N4">
+        <v>0.95</v>
+      </c>
+      <c r="O4">
+        <v>0.95</v>
+      </c>
+      <c r="P4">
+        <v>0.95</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.91900000000000015</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2.6515301704672239E-2</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="C5">
+        <v>0.9190000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.02651530170467224</v>
+      </c>
+      <c r="E5">
         <v>0.85</v>
       </c>
-      <c r="F4" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>0.9</v>
+      </c>
+      <c r="H5">
+        <v>0.95</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
         <v>0.97</v>
       </c>
-      <c r="I4" s="8">
-        <v>2.4743582965269701E-2</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="L5">
+        <v>0.0247435829652697</v>
+      </c>
+      <c r="M5">
+        <v>0.95</v>
+      </c>
+      <c r="N5">
+        <v>0.95</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="L4" s="8">
+      <c r="Q5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>60</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6">
         <v>0.84</v>
       </c>
-      <c r="D5" s="8">
-        <v>7.353080756402007E-2</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D6">
+        <v>0.07353080756402007</v>
+      </c>
+      <c r="E6">
         <v>0.7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.85</v>
+      </c>
+      <c r="H6">
         <v>0.9</v>
       </c>
-      <c r="G5" s="12">
+      <c r="I6">
         <v>0.9</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.92750000000000032</v>
-      </c>
-      <c r="I5" s="8">
-        <v>5.4791592822875608E-2</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>0.9275000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.05479159282287561</v>
+      </c>
+      <c r="M6">
         <v>0.7</v>
       </c>
-      <c r="K5" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="N6">
+        <v>0.95</v>
+      </c>
+      <c r="O6">
+        <v>0.95</v>
+      </c>
+      <c r="P6">
+        <v>0.95</v>
+      </c>
+      <c r="Q6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>280</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.87946428571428592</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.0085519766000604E-2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C7">
+        <v>0.8794642857142859</v>
+      </c>
+      <c r="D7">
+        <v>0.0800855197660006</v>
+      </c>
+      <c r="E7">
         <v>0.5</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>0.95</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="J7">
+        <v>280</v>
+      </c>
+      <c r="K7">
         <v>0.9548214285714286</v>
       </c>
-      <c r="I6" s="3">
-        <v>6.4089740830122713E-2</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="L7">
+        <v>0.06408974083012271</v>
+      </c>
+      <c r="M7">
         <v>0.4</v>
       </c>
-      <c r="K6" s="3">
+      <c r="N7">
+        <v>0.95</v>
+      </c>
+      <c r="O7">
+        <v>0.95</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
